--- a/app/src/main/assets/meike.xlsx
+++ b/app/src/main/assets/meike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sever1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sever1/workplace/RoomStu/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>魅可水漾润泽唇膏 see sheer（西柚色）14# 3g樱花限量版</t>
   </si>
@@ -36,39 +36,6 @@
   </si>
   <si>
     <t>170</t>
-  </si>
-  <si>
-    <t>魅可哑光唇膏 RUBY WOO（经典正红色）04# 3g大理石纹</t>
-  </si>
-  <si>
-    <t>202212</t>
-  </si>
-  <si>
-    <t>魅可柔感哑光唇膏 CHILI （小辣椒）01#  3g大理石纹</t>
-  </si>
-  <si>
-    <t>魅可水漾润泽唇膏 LADY BUG （番茄色）12#  3g大理石纹</t>
-  </si>
-  <si>
-    <t>202210</t>
-  </si>
-  <si>
-    <t>魅可柔感哑光唇膏 MARRAKESH (脏桔色）05# 3g大理石纹</t>
-  </si>
-  <si>
-    <t>202206</t>
-  </si>
-  <si>
-    <t>魅可立体绒光修容饼 （生姜高光） 19# 10g大理石纹</t>
-  </si>
-  <si>
-    <t>盒</t>
-  </si>
-  <si>
-    <t>202211</t>
-  </si>
-  <si>
-    <t>340</t>
   </si>
   <si>
     <t>商品名</t>
@@ -463,7 +430,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F7" sqref="A3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,22 +442,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -515,109 +482,44 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" si="0"/>
-        <v>105.4</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>105.4</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>105.4</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>105.4</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>210.8</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
